--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value926.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value926.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.478393780438198</v>
+        <v>0.9328075051307678</v>
       </c>
       <c r="B1">
-        <v>2.123741103915424</v>
+        <v>1.510351061820984</v>
       </c>
       <c r="C1">
-        <v>3.869790954968355</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.77868099755459</v>
+        <v>1.360382199287415</v>
       </c>
       <c r="E1">
-        <v>0.5544523193995293</v>
+        <v>1.34572970867157</v>
       </c>
     </row>
   </sheetData>
